--- a/output/classesPressaoCS_2022-06-28.xlsx
+++ b/output/classesPressaoCS_2022-06-28.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,16 +412,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BC02</t>
+          <t>20SUBU42</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="C2">
-        <v>0.2088387557647921</v>
+        <v>0.3147524922687969</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -429,7 +429,7 @@
         </is>
       </c>
       <c r="E2">
-        <v>-0.839</v>
+        <v>0.582</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -439,29 +439,20 @@
           <t>BU</t>
         </is>
       </c>
-      <c r="H2">
-        <v>0.4207430421110206</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0.315</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BU30</t>
+          <t>21WNBU34</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="C3">
-        <v>0.3240494940449608</v>
+        <v>0.4396778981629634</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -469,7 +460,7 @@
         </is>
       </c>
       <c r="E3">
-        <v>-1.347</v>
+        <v>0.522</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -479,29 +470,20 @@
           <t>BU</t>
         </is>
       </c>
-      <c r="H3">
-        <v>0.6324321829528489</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.478</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BC29</t>
+          <t>20SUBU62</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Baixa</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="C4">
-        <v>0.1124319981303532</v>
+        <v>0.883904640413762</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -509,7 +491,7 @@
         </is>
       </c>
       <c r="E4">
-        <v>-3.174</v>
+        <v>0.132</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -519,29 +501,20 @@
           <t>BU</t>
         </is>
       </c>
-      <c r="H4">
-        <v>0.6360850349962588</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.374</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BU01</t>
+          <t>20SUBU63</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Baixa</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.1282178434658287</v>
+        <v>0.8190760536902408</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -549,7 +522,7 @@
         </is>
       </c>
       <c r="E5">
-        <v>-4.564</v>
+        <v>-0.6820000000000001</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -559,29 +532,20 @@
           <t>BU</t>
         </is>
       </c>
-      <c r="H5">
-        <v>0.4594482839093317</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0.294</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BU12</t>
+          <t>20SUBU64</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Baixa</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C6">
-        <v>0.1856839885596859</v>
+        <v>0.8095147213916691</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -589,7 +553,7 @@
         </is>
       </c>
       <c r="E6">
-        <v>-5.127</v>
+        <v>-0.731</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -599,29 +563,20 @@
           <t>BU</t>
         </is>
       </c>
-      <c r="H6">
-        <v>0.721051539508989</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0.453</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BU17</t>
+          <t>21WNBU28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Baixa</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.1767486509686101</v>
+        <v>0.2071269513489299</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -629,7 +584,7 @@
         </is>
       </c>
       <c r="E7">
-        <v>-6.002</v>
+        <v>-1.247</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -639,29 +594,20 @@
           <t>BU</t>
         </is>
       </c>
-      <c r="H7">
-        <v>0.4621882990359711</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0.319</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BU54</t>
+          <t>20SUBU41</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Baixa</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.1264145288762273</v>
+        <v>0.6203594576552634</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -669,7 +615,7 @@
         </is>
       </c>
       <c r="E8">
-        <v>-6.223</v>
+        <v>-1.579</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -679,20 +625,11 @@
           <t>BU</t>
         </is>
       </c>
-      <c r="H8">
-        <v>0.1299638959562723</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0.128</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BU09</t>
+          <t>21WNBU03</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -701,7 +638,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.1387849650438425</v>
+        <v>0.2402055961493177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -709,7 +646,7 @@
         </is>
       </c>
       <c r="E9">
-        <v>-6.948</v>
+        <v>-3.694</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -719,20 +656,11 @@
           <t>BU</t>
         </is>
       </c>
-      <c r="H9">
-        <v>0.7447979789841339</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0.442</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BU25</t>
+          <t>21WNBU24</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -741,7 +669,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.05647584938528305</v>
+        <v>0.1767848001412656</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -749,7 +677,7 @@
         </is>
       </c>
       <c r="E10">
-        <v>-7.458</v>
+        <v>-5.458</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -759,20 +687,11 @@
           <t>BU</t>
         </is>
       </c>
-      <c r="H10">
-        <v>0.4444404943734407</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0.25</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BU10</t>
+          <t>21WNBU31</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -781,7 +700,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.05370329804600182</v>
+        <v>0.1518258574122569</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -789,7 +708,7 @@
         </is>
       </c>
       <c r="E11">
-        <v>-9.234999999999999</v>
+        <v>-6.314</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -799,29 +718,20 @@
           <t>BU</t>
         </is>
       </c>
-      <c r="H11">
-        <v>0.2908237825316675</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0.172</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BU29</t>
+          <t>22WNBU35</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Baixa</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.02696019615939616</v>
+        <v>0.0597745684276797</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -829,10 +739,10 @@
         </is>
       </c>
       <c r="E12">
-        <v>-10.642</v>
+        <v>0.448</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -840,19 +750,19 @@
         </is>
       </c>
       <c r="H12">
-        <v>0.3110555071081527</v>
+        <v>0.2684857591531272</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.169</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BU39</t>
+          <t>21SUBU51</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -861,7 +771,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.02468841923580523</v>
+        <v>0.08553151533159564</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -869,10 +779,10 @@
         </is>
       </c>
       <c r="E13">
-        <v>-12.079</v>
+        <v>-2.323</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -880,19 +790,19 @@
         </is>
       </c>
       <c r="H13">
-        <v>0.5920462621966691</v>
+        <v>0.4491223492282429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.308</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BU05</t>
+          <t>21SUBU45</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -901,7 +811,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.01869171058862884</v>
+        <v>0.2590836109786641</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -909,10 +819,10 @@
         </is>
       </c>
       <c r="E14">
-        <v>-12.326</v>
+        <v>-2.409</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -920,19 +830,19 @@
         </is>
       </c>
       <c r="H14">
-        <v>0.4158005781826601</v>
+        <v>0.5553490605287018</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.217</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BU03</t>
+          <t>22WNBU22</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -941,7 +851,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.0201724181902766</v>
+        <v>0.1590705371526938</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -949,10 +859,10 @@
         </is>
       </c>
       <c r="E15">
-        <v>-12.425</v>
+        <v>-3.605</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -960,19 +870,19 @@
         </is>
       </c>
       <c r="H15">
-        <v>0.4383079490295502</v>
+        <v>0.5734762966035559</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.229</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BU35</t>
+          <t>22WNBU07</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -981,7 +891,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.01370309774956624</v>
+        <v>0.06215702422320191</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -989,10 +899,10 @@
         </is>
       </c>
       <c r="E16">
-        <v>-13.305</v>
+        <v>-6.268</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1000,19 +910,19 @@
         </is>
       </c>
       <c r="H16">
-        <v>0.4416814743356495</v>
+        <v>0.6644260566884956</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.228</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BU23</t>
+          <t>21SUBU56</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1021,7 +931,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>0.008892860260180102</v>
+        <v>0.05876895120878511</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1029,10 +939,10 @@
         </is>
       </c>
       <c r="E17">
-        <v>-13.559</v>
+        <v>-6.731</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1040,19 +950,19 @@
         </is>
       </c>
       <c r="H17">
-        <v>0.315720542831728</v>
+        <v>0.493382954163378</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.162</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BU34</t>
+          <t>21SUBU48</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1061,7 +971,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.00499704299551873</v>
+        <v>0.03475851834585708</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1069,10 +979,10 @@
         </is>
       </c>
       <c r="E18">
-        <v>-14.816</v>
+        <v>-7.835</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1080,19 +990,19 @@
         </is>
       </c>
       <c r="H18">
-        <v>0.3173350940855234</v>
+        <v>0.6473714916776006</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.161</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BU40</t>
+          <t>21SUBU62</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1101,7 +1011,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.002165820266315954</v>
+        <v>0.04313334335686236</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1109,10 +1019,10 @@
         </is>
       </c>
       <c r="E19">
-        <v>-14.852</v>
+        <v>-8.582000000000001</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1120,19 +1030,19 @@
         </is>
       </c>
       <c r="H19">
-        <v>0.4984423676012466</v>
+        <v>0.7142383539147623</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.25</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BU41</t>
+          <t>22WNBU30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1141,7 +1051,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.0008466765680525956</v>
+        <v>0.04093554457074444</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1149,10 +1059,10 @@
         </is>
       </c>
       <c r="E20">
-        <v>-18.581</v>
+        <v>-8.710000000000001</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1160,19 +1070,19 @@
         </is>
       </c>
       <c r="H20">
-        <v>0.4062015713016517</v>
+        <v>0.7578593310708927</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.204</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BC18</t>
+          <t>21SUBU50</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1181,7 +1091,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.001248730164362111</v>
+        <v>0.05735920549897355</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1189,10 +1099,10 @@
         </is>
       </c>
       <c r="E21">
-        <v>-22.253</v>
+        <v>-9.08</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1200,19 +1110,19 @@
         </is>
       </c>
       <c r="H21">
-        <v>0.6945268724359207</v>
+        <v>0.6314955322776951</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.348</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BC39</t>
+          <t>22WNBU23</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1221,7 +1131,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>7.868725019211098e-005</v>
+        <v>0.0270376887060334</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1229,10 +1139,10 @@
         </is>
       </c>
       <c r="E22">
-        <v>-31.346</v>
+        <v>-10.333</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1240,19 +1150,19 @@
         </is>
       </c>
       <c r="H22">
-        <v>0.991348111198625</v>
+        <v>0.193824595423773</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.496</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BC01</t>
+          <t>21SUBU58</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1261,7 +1171,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>2.662590663504716e-007</v>
+        <v>0.04420718181400629</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1269,10 +1179,10 @@
         </is>
       </c>
       <c r="E23">
-        <v>-41.613</v>
+        <v>-10.718</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1280,19 +1190,19 @@
         </is>
       </c>
       <c r="H23">
-        <v>0.3742817447225503</v>
+        <v>0.4883642707730967</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.187</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BC30</t>
+          <t>22WNBU39</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1301,7 +1211,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>1.014736720206244e-007</v>
+        <v>0.03163754450622591</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1309,10 +1219,10 @@
         </is>
       </c>
       <c r="E24">
-        <v>-43.352</v>
+        <v>-11.079</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1320,28 +1230,28 @@
         </is>
       </c>
       <c r="H24">
-        <v>0.2244626556473622</v>
+        <v>0.6144476029342225</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.112</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>21WNLOYG501BC02</t>
+          <t>22WNBU09</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Baixa</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.2088387557647921</v>
+        <v>0.03921208677616461</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1349,30 +1259,39 @@
         </is>
       </c>
       <c r="E25">
-        <v>-0.839</v>
+        <v>-11.523</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>trial</t>
-        </is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H25">
+        <v>0.8583614683604289</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.449</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>22WNUBYG501BU30</t>
+          <t>21SUBU68</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Baixa</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.3240494940449608</v>
+        <v>0.01723768650701485</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1380,21 +1299,30 @@
         </is>
       </c>
       <c r="E26">
-        <v>-1.347</v>
+        <v>-11.673</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>trial</t>
-        </is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H26">
+        <v>0.5121786285217309</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>21WNLOYG501BC29</t>
+          <t>22WNBC47</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1403,7 +1331,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>0.1124319981303532</v>
+        <v>0.03343145963813288</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1411,21 +1339,30 @@
         </is>
       </c>
       <c r="E27">
-        <v>-3.174</v>
+        <v>-11.828</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>trial</t>
-        </is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H27">
+        <v>0.814562825788241</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.424</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>22WNUBYG501BU01</t>
+          <t>21SUBU47</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1434,7 +1371,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>0.1282178434658287</v>
+        <v>0.01355419209506292</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1442,21 +1379,30 @@
         </is>
       </c>
       <c r="E28">
-        <v>-4.564</v>
+        <v>-12.397</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>trial</t>
-        </is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H28">
+        <v>0.2525212366816586</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.133</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>22WNUBYG501BU12</t>
+          <t>21SUBU71</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1465,7 +1411,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>0.1856839885596859</v>
+        <v>0.01024582357258852</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1473,21 +1419,30 @@
         </is>
       </c>
       <c r="E29">
-        <v>-5.127</v>
+        <v>-14.17</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>trial</t>
-        </is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H29">
+        <v>0.5294404061316782</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>22WNUBYG501BU17</t>
+          <t>22WNBT06</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1496,7 +1451,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>0.1767486509686101</v>
+        <v>0.009193263137935559</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1504,21 +1459,30 @@
         </is>
       </c>
       <c r="E30">
-        <v>-6.002</v>
+        <v>-14.247</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>trial</t>
-        </is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H30">
+        <v>0.4780930841592738</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.244</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>21SUUBYG501BU54</t>
+          <t>21SUBU54</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1527,7 +1491,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>0.1264145288762273</v>
+        <v>0.007539338660514261</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1535,21 +1499,30 @@
         </is>
       </c>
       <c r="E31">
-        <v>-6.223</v>
+        <v>-14.974</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>trial</t>
-        </is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H31">
+        <v>0.3607051450095715</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.184</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>22WNUBYG501BU09</t>
+          <t>22WNBU06</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1558,7 +1531,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>0.1387849650438425</v>
+        <v>0.005800169225901763</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1566,21 +1539,30 @@
         </is>
       </c>
       <c r="E32">
-        <v>-6.948</v>
+        <v>-17.209</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>trial</t>
-        </is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H32">
+        <v>0.5568829406602931</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.281</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>22WNUBYG501BU25</t>
+          <t>21SUBU60</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1589,7 +1571,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>0.05647584938528305</v>
+        <v>0.00565939843694041</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1597,21 +1579,30 @@
         </is>
       </c>
       <c r="E33">
-        <v>-7.458</v>
+        <v>-17.265</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>trial</t>
-        </is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H33">
+        <v>0.4920009177972469</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.249</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>22WNUBYG501BU10</t>
+          <t>22WNBU05</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1620,7 +1611,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>0.05370329804600182</v>
+        <v>0.00860033973734653</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1628,21 +1619,30 @@
         </is>
       </c>
       <c r="E34">
-        <v>-9.234999999999999</v>
+        <v>-17.751</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>trial</t>
-        </is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H34">
+        <v>0.6717062792041458</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>22WNUBYG501BU29</t>
+          <t>22WNBU34</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1651,7 +1651,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>0.02696019615939616</v>
+        <v>0.005606466165290036</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1659,21 +1659,30 @@
         </is>
       </c>
       <c r="E35">
-        <v>-10.642</v>
+        <v>-18.011</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>trial</t>
-        </is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H35">
+        <v>0.4384610752232779</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.222</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>22WNUBYG501BU39</t>
+          <t>22WNBT13</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1682,7 +1691,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>0.02468841923580523</v>
+        <v>0.004106152885516523</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1690,21 +1699,30 @@
         </is>
       </c>
       <c r="E36">
-        <v>-12.079</v>
+        <v>-18.597</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>trial</t>
-        </is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H36">
+        <v>0.4382214191300873</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.221</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>22WNUBYG501BU05</t>
+          <t>22WNBU03</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1713,7 +1731,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>0.01869171058862884</v>
+        <v>0.005135181585775528</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1721,21 +1739,30 @@
         </is>
       </c>
       <c r="E37">
-        <v>-12.326</v>
+        <v>-18.876</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>trial</t>
-        </is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H37">
+        <v>0.515178440391144</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>22WNUBYG501BU03</t>
+          <t>22WNBC07</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1744,7 +1771,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>0.0201724181902766</v>
+        <v>0.00139058723434804</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1752,21 +1779,30 @@
         </is>
       </c>
       <c r="E38">
-        <v>-12.425</v>
+        <v>-19.443</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>trial</t>
-        </is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H38">
+        <v>0.8757271296917604</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.439</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>22WNUBYG501BU35</t>
+          <t>22WNBC08</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1775,7 +1811,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>0.01370309774956624</v>
+        <v>0.007091121214469198</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1783,21 +1819,30 @@
         </is>
       </c>
       <c r="E39">
-        <v>-13.305</v>
+        <v>-19.513</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>trial</t>
-        </is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H39">
+        <v>0.9026919022307115</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.455</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>22WNUBYG501BU23</t>
+          <t>22WNBT07</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1806,7 +1851,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>0.008892860260180102</v>
+        <v>0.001405298666059207</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1814,21 +1859,30 @@
         </is>
       </c>
       <c r="E40">
-        <v>-13.559</v>
+        <v>-21.043</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>trial</t>
-        </is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H40">
+        <v>0.3915941526611193</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.196</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>22WNUBYG501BU34</t>
+          <t>22WNBU29</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1837,7 +1891,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>0.00499704299551873</v>
+        <v>0.0007908778033129948</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1845,21 +1899,30 @@
         </is>
       </c>
       <c r="E41">
-        <v>-14.816</v>
+        <v>-21.554</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>trial</t>
-        </is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H41">
+        <v>0.04025969705231564</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.021</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>22WNUBYG501BU40</t>
+          <t>22WNBC49</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1868,7 +1931,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>0.002165820266315954</v>
+        <v>0.004790860200566294</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1876,21 +1939,30 @@
         </is>
       </c>
       <c r="E42">
-        <v>-14.852</v>
+        <v>-21.967</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>trial</t>
-        </is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H42">
+        <v>0.771066111310617</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.388</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>22WNUBYG501BU41</t>
+          <t>22WNBT09</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1899,7 +1971,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>0.0008466765680525956</v>
+        <v>0.0006560844249283715</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1907,21 +1979,30 @@
         </is>
       </c>
       <c r="E43">
-        <v>-18.581</v>
+        <v>-22.975</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>trial</t>
-        </is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H43">
+        <v>0.4900721643590549</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.245</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>21WNLOYG501BC18</t>
+          <t>22WNBU41</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1930,7 +2011,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>0.001248730164362111</v>
+        <v>0.000195203080040951</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1938,21 +2019,30 @@
         </is>
       </c>
       <c r="E44">
-        <v>-22.253</v>
+        <v>-25.421</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>trial</t>
-        </is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H44">
+        <v>0.5020428659158246</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.251</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>21WNLOYG501BC39</t>
+          <t>22WNBC14</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1961,7 +2051,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>7.868725019211098e-005</v>
+        <v>0.001161193614756306</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1969,21 +2059,30 @@
         </is>
       </c>
       <c r="E45">
-        <v>-31.346</v>
+        <v>-25.738</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>trial</t>
-        </is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H45">
+        <v>0.8142951054189325</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.408</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>21WNLOYG501BC01</t>
+          <t>22WNBC48</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1992,7 +2091,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>2.662590663504716e-007</v>
+        <v>0.0003707320329168207</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2000,21 +2099,30 @@
         </is>
       </c>
       <c r="E46">
-        <v>-41.613</v>
+        <v>-27.005</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>trial</t>
-        </is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H46">
+        <v>0.8502371161368613</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.425</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>21WNLOYG501BC30</t>
+          <t>21SUBU55</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2023,7 +2131,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>1.014736720206244e-007</v>
+        <v>1.771345055956441e-005</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2031,12 +2139,2662 @@
         </is>
       </c>
       <c r="E47">
-        <v>-43.352</v>
+        <v>-27.258</v>
       </c>
       <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H47">
+        <v>0.456638345139485</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.228</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>21SUBU72</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>9.679412102170382e-006</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E48">
+        <v>-27.939</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H48">
+        <v>0.1085995939076253</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>22WNBC31</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>4.489819462527578e-005</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E49">
+        <v>-30.139</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H49">
+        <v>0.847241726128169</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.424</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>22WNBC33</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>2.02890712601711e-005</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E50">
+        <v>-30.218</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H50">
+        <v>0.8954177790019549</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.448</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>22WNBC04</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>5.69650426471835e-005</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E51">
+        <v>-31.606</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H51">
+        <v>0.8376356655100293</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.419</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>22WNBT14</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>5.205586142142948e-007</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E52">
+        <v>-35.496</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H52">
+        <v>0.2777535477659839</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.139</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>22WNBL28</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>1.714648026895915e-007</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E53">
+        <v>-42.183</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H53">
+        <v>0.1319441121452607</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.066</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>22WNBC44</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>1.049384668050379e-008</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E54">
+        <v>-47.646</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H54">
+        <v>0.5125680159130769</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.256</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>22WNBC38</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>7.652569800065123e-009</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E55">
+        <v>-47.97</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H55">
+        <v>0.4856129596508171</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.243</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>22WNBL21</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>2.35239727697234e-009</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E56">
+        <v>-48.525</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H56">
+        <v>0.5586523887118706</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.279</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>22WNBC06</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>2.01434025015601e-009</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E57">
+        <v>-50.013</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H57">
+        <v>0.3394097763539961</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>22WNBC01</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>6.877308722508246e-010</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E58">
+        <v>-51.428</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H58">
+        <v>0.1862091978044239</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.093</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>20SUUBYG501BU42</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>0.3147524922687969</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E59">
+        <v>0.582</v>
+      </c>
+      <c r="F59">
         <v>5</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>21WNUBYG501BU34</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="C60">
+        <v>0.4396778981629634</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E60">
+        <v>0.522</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>20SUUBYG501BU62</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>0.883904640413762</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E61">
+        <v>0.132</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>20SUUBYG501BU63</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C62">
+        <v>0.8190760536902408</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E62">
+        <v>-0.6820000000000001</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>20SUUBYG501BU64</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>0.8095147213916691</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E63">
+        <v>-0.731</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>21WNUBYG501BU28</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>0.2071269513489299</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E64">
+        <v>-1.247</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>20SUUBYG501BU41</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C65">
+        <v>0.6203594576552634</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E65">
+        <v>-1.579</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>21WNUBYG501BU03</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>0.2402055961493177</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E66">
+        <v>-3.694</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>21WNUBYG501BU24</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C67">
+        <v>0.1767848001412656</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E67">
+        <v>-5.458</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>21WNUBYG501BU31</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>0.1518258574122569</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E68">
+        <v>-6.314</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D2BU45</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>0.3690851043823467</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E69">
+        <v>1.034</v>
+      </c>
+      <c r="F69">
+        <v>6</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU35</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="C70">
+        <v>0.0597745684276797</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E70">
+        <v>0.448</v>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D1BU51</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>0.06985937825012878</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E71">
+        <v>-2.953</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D6BU68</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>0.02802354260407791</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E72">
+        <v>-3.155</v>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D1BU45</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>0.2216873087530332</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E73">
+        <v>-3.218</v>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D6BU45</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>0.3386367839382685</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E74">
+        <v>-3.314</v>
+      </c>
+      <c r="F74">
+        <v>6</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU22</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>0.1590705371526938</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E75">
+        <v>-3.605</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D6BU62</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>0.2058760634739376</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E76">
+        <v>-3.751</v>
+      </c>
+      <c r="F76">
+        <v>6</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D6BU51</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>0.1359193760452202</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E77">
+        <v>-4.226</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D6BU50</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>0.1800836005709675</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E78">
+        <v>-4.604</v>
+      </c>
+      <c r="F78">
+        <v>6</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D2BU68</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>0.1427359677161834</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E79">
+        <v>-5.318</v>
+      </c>
+      <c r="F79">
+        <v>6</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D1BU56</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>0.04435374582177332</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E80">
+        <v>-5.911</v>
+      </c>
+      <c r="F80">
+        <v>6</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU07</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>0.06215702422320191</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E81">
+        <v>-6.268</v>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D6BU56</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>0.1368472283610915</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E82">
+        <v>-6.333</v>
+      </c>
+      <c r="F82">
+        <v>6</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D6BU48</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>0.0542620791715438</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E83">
+        <v>-6.625</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D6BU58</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>0.09129299310777039</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E84">
+        <v>-7.349</v>
+      </c>
+      <c r="F84">
+        <v>6</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D2BU60</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>0.09865577955440064</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E85">
+        <v>-7.462</v>
+      </c>
+      <c r="F85">
+        <v>6</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D6BU71</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>0.04990942820285305</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E86">
+        <v>-7.933</v>
+      </c>
+      <c r="F86">
+        <v>6</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D1BU48</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>0.03285940702814594</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E87">
+        <v>-8.476000000000001</v>
+      </c>
+      <c r="F87">
+        <v>6</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU30</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>0.04093554457074444</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E88">
+        <v>-8.710000000000001</v>
+      </c>
+      <c r="F88">
+        <v>6</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D6BU47</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>0.03983299322997602</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E89">
+        <v>-8.967000000000001</v>
+      </c>
+      <c r="F89">
+        <v>6</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D6BU54</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>0.032567909756271</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E90">
+        <v>-9.401</v>
+      </c>
+      <c r="F90">
+        <v>6</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D1BU62</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>0.04595433137210603</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E91">
+        <v>-9.467000000000001</v>
+      </c>
+      <c r="F91">
+        <v>6</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU23</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>0.0270376887060334</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E92">
+        <v>-10.333</v>
+      </c>
+      <c r="F92">
+        <v>6</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU39</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>0.03163754450622591</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E93">
+        <v>-11.079</v>
+      </c>
+      <c r="F93">
+        <v>6</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU09</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>0.03921208677616461</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E94">
+        <v>-11.523</v>
+      </c>
+      <c r="F94">
+        <v>6</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D1BU58</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>0.02663086170457929</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E95">
+        <v>-11.74</v>
+      </c>
+      <c r="F95">
+        <v>6</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D1BU68</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C96">
+        <v>0.023835572559747</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E96">
+        <v>-11.776</v>
+      </c>
+      <c r="F96">
+        <v>6</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6L1BC47</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>0.03343145963813288</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E97">
+        <v>-11.828</v>
+      </c>
+      <c r="F97">
+        <v>6</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D1BU50</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C98">
+        <v>0.02227954809372812</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E98">
+        <v>-12.492</v>
+      </c>
+      <c r="F98">
+        <v>6</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D1BU47</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>0.01076966319144912</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E99">
+        <v>-13.09</v>
+      </c>
+      <c r="F99">
+        <v>6</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6J1BT06</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>0.009193263137935559</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E100">
+        <v>-14.247</v>
+      </c>
+      <c r="F100">
+        <v>6</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D1BU71</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>0.006859062397170157</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E101">
+        <v>-15.243</v>
+      </c>
+      <c r="F101">
+        <v>6</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D1BU54</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>0.003358712883750115</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E102">
+        <v>-16.741</v>
+      </c>
+      <c r="F102">
+        <v>6</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU06</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>0.005800169225901763</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E103">
+        <v>-17.209</v>
+      </c>
+      <c r="F103">
+        <v>6</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU05</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>0.00860033973734653</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E104">
+        <v>-17.751</v>
+      </c>
+      <c r="F104">
+        <v>6</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU34</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>0.005606466165290036</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E105">
+        <v>-18.011</v>
+      </c>
+      <c r="F105">
+        <v>6</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6J1BT13</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>0.004106152885516523</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E106">
+        <v>-18.597</v>
+      </c>
+      <c r="F106">
+        <v>6</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU03</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C107">
+        <v>0.005135181585775528</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E107">
+        <v>-18.876</v>
+      </c>
+      <c r="F107">
+        <v>6</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D1BU60</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C108">
+        <v>0.002400242243260742</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E108">
+        <v>-18.988</v>
+      </c>
+      <c r="F108">
+        <v>6</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6L1BC07</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>0.00139058723434804</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E109">
+        <v>-19.443</v>
+      </c>
+      <c r="F109">
+        <v>6</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6L1BC08</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C110">
+        <v>0.007091121214469198</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E110">
+        <v>-19.513</v>
+      </c>
+      <c r="F110">
+        <v>6</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6J1BT07</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>0.001405298666059207</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E111">
+        <v>-21.043</v>
+      </c>
+      <c r="F111">
+        <v>6</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU29</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C112">
+        <v>0.0007908778033129948</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E112">
+        <v>-21.554</v>
+      </c>
+      <c r="F112">
+        <v>6</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6L1BC49</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>0.004790860200566294</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E113">
+        <v>-21.967</v>
+      </c>
+      <c r="F113">
+        <v>6</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6J1BT09</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>0.0006560844249283715</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E114">
+        <v>-22.975</v>
+      </c>
+      <c r="F114">
+        <v>6</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU41</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>0.000195203080040951</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E115">
+        <v>-25.421</v>
+      </c>
+      <c r="F115">
+        <v>6</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6L1BC14</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C116">
+        <v>0.001161193614756306</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E116">
+        <v>-25.738</v>
+      </c>
+      <c r="F116">
+        <v>6</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6L1BC48</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C117">
+        <v>0.0003707320329168207</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E117">
+        <v>-27.005</v>
+      </c>
+      <c r="F117">
+        <v>6</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D1BU55</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>1.838496780381949e-005</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E118">
+        <v>-27.203</v>
+      </c>
+      <c r="F118">
+        <v>6</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>21SUBPEYG6D1BU72</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>9.679412102170382e-006</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E119">
+        <v>-27.939</v>
+      </c>
+      <c r="F119">
+        <v>6</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6L1BC31</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C120">
+        <v>4.489819462527578e-005</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E120">
+        <v>-30.139</v>
+      </c>
+      <c r="F120">
+        <v>6</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6L1BC33</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>2.02890712601711e-005</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E121">
+        <v>-30.218</v>
+      </c>
+      <c r="F121">
+        <v>6</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6L1BC04</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C122">
+        <v>5.69650426471835e-005</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E122">
+        <v>-31.606</v>
+      </c>
+      <c r="F122">
+        <v>6</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6J1BT14</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C123">
+        <v>5.205586142142948e-007</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E123">
+        <v>-35.496</v>
+      </c>
+      <c r="F123">
+        <v>6</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6I1BL28</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C124">
+        <v>1.714648026895915e-007</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E124">
+        <v>-42.183</v>
+      </c>
+      <c r="F124">
+        <v>6</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6L1BC44</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C125">
+        <v>1.049384668050379e-008</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E125">
+        <v>-47.646</v>
+      </c>
+      <c r="F125">
+        <v>6</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6L1BC38</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C126">
+        <v>7.652569800065123e-009</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E126">
+        <v>-47.97</v>
+      </c>
+      <c r="F126">
+        <v>6</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6I1BL21</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C127">
+        <v>2.35239727697234e-009</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E127">
+        <v>-48.525</v>
+      </c>
+      <c r="F127">
+        <v>6</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6L1BC06</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C128">
+        <v>2.01434025015601e-009</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E128">
+        <v>-50.013</v>
+      </c>
+      <c r="F128">
+        <v>6</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6L1BC01</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C129">
+        <v>6.877308722508246e-010</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E129">
+        <v>-51.428</v>
+      </c>
+      <c r="F129">
+        <v>6</v>
+      </c>
+      <c r="G129" t="inlineStr">
         <is>
           <t>trial</t>
         </is>
